--- a/src/main/resources/support requests tests.xlsx
+++ b/src/main/resources/support requests tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachini\4th Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachini\IdeaProjects\asqa_assignment_02\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25911D83-A585-4698-9B97-64F180136276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929521B4-A5F7-4EA0-AA57-708C3E628A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="720" windowWidth="9504" windowHeight="10944" xr2:uid="{2F42E261-D184-4870-B4B7-059F1B3E6387}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F42E261-D184-4870-B4B7-059F1B3E6387}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,13 +486,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
